--- a/日経社説ー春秋/「サイバー」に強い自由社会を.xlsx
+++ b/日経社説ー春秋/「サイバー」に強い自由社会を.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywu\Desktop\translation\日経社説ー春秋\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>サイバー</t>
   </si>
@@ -162,18 +157,126 @@
   </si>
   <si>
     <t>きたいしたとおりになること。</t>
+  </si>
+  <si>
+    <r>
+      <t>米国の新しい大統領にドナルド</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・トランプ氏が就いたが、その当選を決めた昨年の選挙戦にロシア政府がサイバー攻撃などで干渉した疑いがあることには、これからも留意して行く必要がある。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米国も国家情報長官室が６日に公表した報告によると、ロシアは大きく分けて二つの方法で干渉した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一つには、サイバー攻撃で政治からの電子メールなどを手に入れ、民主党のクリントン候補に不利とみられる情報をワイキリークスなどを通じて公開した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一方でロシア政府の影響下にあるメディアへクリントン候補に不利な偽ニュースを流し、交流サイト（SNS)などで拡散した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ただ、ロシアのプーチン大統領には、米国の政治システムへの信頼を揺るがし自由民主主義に打撃を与える狙いがあった、としている。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳を傾けたい分析である。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今回の大統領選では、かつてなく高度な手法が目を引く。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景にあるのはいうまでなくネットの普及とSNSの台頭だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サイバー時代の自由民主主義の危うさを、我々は直視無くてはならない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今年はフランスやドイツなどで重要な選挙が相次ぐ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧州への干渉の広がりが懸念される。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由民主主義の国々は協力して対策を強化すべきだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とりわけ日本のサイバー対策は遅れている、との見方が少なくない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧州などとの連携を急ぎたい。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もっとも、サイバー攻撃の完封は不可能に近い。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>また、偽ニュースを排除しようとして情報の自由な流通を妨げれば、かえって民主主義の基盤を損なう。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうした干渉が選挙結果にどう響いた、報告は触れていない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民主的な選挙に外から干渉しようという試みは珍しくない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大切なのは、情報の真偽と、その裏に潜む政治的な思惑を見極める力を、有権者が身につけること。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サイバー攻撃などの干渉を恐れるあまり、政府や政党を含め自由社会がIT（情報科学技術）を活かした改革を怠れば、むしろ「敵」の思う壺だろう。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -197,14 +300,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -262,7 +368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,7 +403,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -474,37 +580,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
+    <col min="1" max="1" width="88.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
+    <col min="3" max="3" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="27">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -514,8 +620,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" ht="27">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -525,8 +631,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" ht="40.5">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -536,8 +642,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -547,8 +653,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -558,8 +664,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -569,8 +675,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -580,8 +686,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -591,16 +697,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" ht="27">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -610,8 +716,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -621,8 +727,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -632,8 +738,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -643,8 +749,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" ht="27">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -654,8 +760,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -665,7 +771,109 @@
         <v>45</v>
       </c>
     </row>
+    <row r="19" spans="1:1" ht="27">
+      <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="27">
+      <c r="A21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="27">
+      <c r="A22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="27">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="21" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="27">
+      <c r="A36" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="27">
+      <c r="A38" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>